--- a/Tables/Sources/gameplay/Character/CharacterQualityConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterQualityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,6 +254,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -254,61 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,52 +368,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -395,181 +395,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,35 +719,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +738,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,55 +820,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +838,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,19 +1381,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.2545454545455" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1272727272727" style="19" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" customWidth="1"/>
     <col min="5" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" s="18" customFormat="1" ht="13.5" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1510,13 +1510,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
+    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="2:10">
+    <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:10">
+    <row r="5" ht="14.5" spans="2:10">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>3</v>
@@ -1587,7 +1587,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="2:10">
+    <row r="6" ht="14.5" spans="2:10">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -1604,7 +1604,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="2:10">
+    <row r="7" ht="14.5" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3</v>
@@ -1621,7 +1621,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="2:10">
+    <row r="8" ht="14.5" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>3</v>
@@ -1638,7 +1638,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="2:10">
+    <row r="9" ht="14.5" spans="2:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>3</v>
@@ -1655,7 +1655,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1836,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
